--- a/medicine/Enfance/Pierre_et_le_Loup/Pierre_et_le_Loup.xlsx
+++ b/medicine/Enfance/Pierre_et_le_Loup/Pierre_et_le_Loup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pierre et le Loup (Pétia i volk, en russe : Петя и волк) opus 67, est un conte symphonique didactique pédagogique allégorique pour enfants, de 1936, de l'auteur-compositeur-interprète russe Sergueï Prokofiev (1891-1953).
@@ -515,12 +527,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sergueï Prokofiev retourne définitivement vivre en Union soviétique en 1935, après avoir fui la révolution russe de 1917, et avoir passé deux décennies de sa vie aux États-Unis et en France. Il compose alors son ballet Roméo et Juliette (avec sa célèbre Danse des chevaliers[1]) d’après l'œuvre de William Shakespeare.
-Alors qu'il vit avec sa famille à l'Hôtel Métropole de Moscou (en), et emmène ses deux jeunes fils au théâtre central pour enfants de Moscou, la directrice Natalia Sats lui demande de composer des œuvres pour initier les enfants à la musique classique et aux principaux instruments d'orchestre symphonique. Il est alors âgé de 45 ans, avec quatre symphonies et plusieurs ballets à son actif, quand il compose ce conte philosophique symphonique Pierre et le Loup sur le thème allégorique du « petit Pierre qui n'a pas peur du grand méchant loup » (variante du Petit Chaperon rouge) dont il crée la première représentation le 2 mai 1936 au Théâtre central pour enfants de Moscou[2],[3],[4].
-Après une première proposition de livret qui ne convient pas à Prokofiev, celui-ci crée lui-même l'histoire, en s'inspirant des contes folkloriques russes de Ivan Tsarévitch[5].
-On peut interpréter cette histoire comme un conte à la gloire de l'audace et de la débrouillardise des pionniers soviétiques, tels Pavel Morozov. L'antagonisme avec le grand-père peut également être vu comme une résistance à l'ordre réactionnaire, mais aussi comme une désobéissance face au régime totalitaire stalinien[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sergueï Prokofiev retourne définitivement vivre en Union soviétique en 1935, après avoir fui la révolution russe de 1917, et avoir passé deux décennies de sa vie aux États-Unis et en France. Il compose alors son ballet Roméo et Juliette (avec sa célèbre Danse des chevaliers) d’après l'œuvre de William Shakespeare.
+Alors qu'il vit avec sa famille à l'Hôtel Métropole de Moscou (en), et emmène ses deux jeunes fils au théâtre central pour enfants de Moscou, la directrice Natalia Sats lui demande de composer des œuvres pour initier les enfants à la musique classique et aux principaux instruments d'orchestre symphonique. Il est alors âgé de 45 ans, avec quatre symphonies et plusieurs ballets à son actif, quand il compose ce conte philosophique symphonique Pierre et le Loup sur le thème allégorique du « petit Pierre qui n'a pas peur du grand méchant loup » (variante du Petit Chaperon rouge) dont il crée la première représentation le 2 mai 1936 au Théâtre central pour enfants de Moscou.
+Après une première proposition de livret qui ne convient pas à Prokofiev, celui-ci crée lui-même l'histoire, en s'inspirant des contes folkloriques russes de Ivan Tsarévitch.
+On peut interpréter cette histoire comme un conte à la gloire de l'audace et de la débrouillardise des pionniers soviétiques, tels Pavel Morozov. L'antagonisme avec le grand-père peut également être vu comme une résistance à l'ordre réactionnaire, mais aussi comme une désobéissance face au régime totalitaire stalinien.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>L'histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre (« petit Pierre », Petia en russe), un jeune Soviétique[6], vit à la campagne avec son grand-père. Un jour qu'il laisse la porte du jardin ouverte, un canard profite de l'occasion pour aller nager dans la mare toute proche et pour se quereller avec un oiseau « quel genre d'oiseau es-tu si tu ne sais pas voler ? » - « quel genre d'oiseau es-tu si tu ne sais pas nager ? » lui répond le canard. À ce moment, un chat s'approche ; alerté par Pierre, l'oiseau s'envole pour se réfugier dans un arbre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre (« petit Pierre », Petia en russe), un jeune Soviétique, vit à la campagne avec son grand-père. Un jour qu'il laisse la porte du jardin ouverte, un canard profite de l'occasion pour aller nager dans la mare toute proche et pour se quereller avec un oiseau « quel genre d'oiseau es-tu si tu ne sais pas voler ? » - « quel genre d'oiseau es-tu si tu ne sais pas nager ? » lui répond le canard. À ce moment, un chat s'approche ; alerté par Pierre, l'oiseau s'envole pour se réfugier dans un arbre.
 Le grand-père de Pierre ramène le garçon à la maison en bougonnant et referme la porte par peur que le loup puisse surgir. C'est ce qui arrive, sitôt la porte fermée : l'oiseau et le chat s'échappent dans les arbres mais le canard, pataud et se dandinant, est avalé par le loup. Pierre attend que son grand-père s'endorme pour aller chasser le loup.
 Il prend alors une corde, grimpe dans l'arbre en escaladant le mur du jardin et demande à l'oiseau de voltiger autour de la tête du loup pour détourner son attention et l’attirer vers lui. Pierre forme alors un nœud coulant avec lequel il parvient à capturer le loup par la queue. Plus le loup bondit, plus la corde se resserre autour de sa queue.
 Les chasseurs sortent de la forêt. L'oiseau leur dit qu'un loup s'y trouve. Ces derniers vont alors aider Pierre, mais celui-ci l'a déjà capturé. Tous ensemble entament une marche triomphale pour emmener le loup au jardin zoologique, puis ils organisent une grande fête finale de grand dénouement heureux.
@@ -583,9 +599,11 @@
           <t>Œuvre didactique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le but de cette œuvre pédagogique est de faire découvrir aux enfants certains instruments de l'orchestre[6]. Tandis que le récitant parle, l'orchestre ponctue le récit d'intermèdes musicaux où les différents protagonistes sont personnifiés par des instruments[7],[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le but de cette œuvre pédagogique est de faire découvrir aux enfants certains instruments de l'orchestre. Tandis que le récitant parle, l'orchestre ponctue le récit d'intermèdes musicaux où les différents protagonistes sont personnifiés par des instruments, :
 Pierre : le quatuor à cordes ;
 l'oiseau : la flûte traversière ;
 le canard : le hautbois ;
@@ -623,7 +641,9 @@
           <t>Orchestration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'œuvre est écrite pour un petit orchestre symphonique, presque un orchestre de chambre, tous les vents étant uniques sauf les trois cors. Prokofiev a su utiliser le caractère spécifique de chaque instrument pour décrire le tempérament et les particularités des personnages :
 l'agilité — virtuosité de l'oiseau — flûte traversière et sa sonorité cristalline ;
@@ -667,7 +687,9 @@
           <t>Discographie sélective</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1956 : Gérard Philipe, Orchestre symphonique d'État d'URSS sous la direction de Guennadi Rojdestvenski (Le Chant du Monde).
@@ -694,7 +716,7 @@
 2007 : Valérie Lemercier, Orchestre national du Capitole de Toulouse, direction Tugan Sokhiev (Naïve).
 2013 : Denis Podalydès, Leslie Menu, et The Amazing Keystone Big Band (Le Chant du Monde)
 2014 : François Morel, Orchestre National de France, direction Daniele Gatti
-2023: Jean Lambert-wild, Quintette Kornôg, Les musicales du Golfe[9]
+2023: Jean Lambert-wild, Quintette Kornôg, Les musicales du Golfe
 </t>
         </is>
       </c>
@@ -723,9 +745,11 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite du dessin animé Pierre et le Loup de La Boîte à musique, réalisé en 1946 par Walt Disney, Pierre et le Loup a fait l'objet de nombreuses adaptations, comme celle de Michel Jaffrennou en 1995, avec Peter Ustinov (récitant et grand-père) et Lilian Durey (dans le rôle de Pierre)[10].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite du dessin animé Pierre et le Loup de La Boîte à musique, réalisé en 1946 par Walt Disney, Pierre et le Loup a fait l'objet de nombreuses adaptations, comme celle de Michel Jaffrennou en 1995, avec Peter Ustinov (récitant et grand-père) et Lilian Durey (dans le rôle de Pierre).
 Suzie Templeton (Royaume-Uni) réalise en 2006 un court métrage d'animation de marionnettes de trente minutes, Peter &amp; the Wolf, à partir de la version symphonique (sans parole) de l’œuvre. Dans un décor de Russie rurale (neige, glace). Pierre capture le loup mais, voyant celui-ci condamné à figurer dans un cirque, ou à être mangé et empaillé, finit par l'aider à se sauver et rejoindre la forêt.
 </t>
         </is>
@@ -755,9 +779,11 @@
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1946 : Pierre et le Loup, de La Boîte à musique, de Walt Disney Pictures, avec Sacha l'oiseau, Sonia le canard, Ivan le chat, Misha, Yasha et Vladimir les chasseurs[11].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1946 : Pierre et le Loup, de La Boîte à musique, de Walt Disney Pictures, avec Sacha l'oiseau, Sonia le canard, Ivan le chat, Misha, Yasha et Vladimir les chasseurs.
 2000 : Promenons-nous dans les bois, de Lionel Delplanque
 2006 : Pierre et le Loup, court métrage d'animation de Suzie Templeton</t>
         </is>
